--- a/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
+++ b/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
@@ -4,38 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8055" tabRatio="377"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8055" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$14</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$97</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$97</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$413</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$408</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$413</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$413</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$408</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$408</definedName>
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$413</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$408</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$19</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$14</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$97</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$413</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$408</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Ref Des</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>CP05MOAS-GL336</t>
+  </si>
+  <si>
+    <t>40°02.0500'N</t>
+  </si>
+  <si>
+    <t>70°19.7500'W</t>
   </si>
 </sst>
 </file>
@@ -344,13 +350,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,11 +783,11 @@
       <c r="F2" s="7">
         <v>42131</v>
       </c>
-      <c r="G2" s="8">
-        <v>40.034199999999998</v>
-      </c>
-      <c r="H2" s="8">
-        <v>-70.329099999999997</v>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -790,6 +798,24 @@
       <c r="K2" s="5"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -799,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,26 +985,33 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14">
+        <v>336</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2858</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="25">
+        <v>124</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="14">
@@ -991,10 +1024,10 @@
         <v>2858</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="27">
-        <v>124</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="24">
+        <v>700</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -1016,10 +1049,10 @@
         <v>2858</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="25">
-        <v>700</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1041,10 +1074,10 @@
         <v>2858</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1.0760000000000001</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3.9E-2</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -1052,9 +1085,9 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>25</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="14">
         <v>336</v>
@@ -1063,14 +1096,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="15">
-        <v>2858</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3.9E-2</v>
-      </c>
+        <v>9030</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1078,12 +1107,20 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14">
+        <v>336</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>117</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1092,7 +1129,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="14">
         <v>336</v>
@@ -1101,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="15">
-        <v>9030</v>
+        <v>50152</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="22"/>
@@ -1112,10 +1149,18 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14">
+        <v>336</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>336</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="22"/>
       <c r="G13" s="20"/>
@@ -1124,95 +1169,6 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14">
-        <v>336</v>
-      </c>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>117</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="14">
-        <v>336</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>50152</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="14">
-        <v>336</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>336</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
+++ b/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
@@ -73,9 +73,6 @@
     <t>Scarlett Isabella</t>
   </si>
   <si>
-    <t>Glider Serial Number</t>
-  </si>
-  <si>
     <t>Sensor Serial Number</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>70°19.7500'W</t>
+  </si>
+  <si>
+    <t>Mooring Serial Number</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4">
         <v>336</v>
@@ -784,10 +784,10 @@
         <v>42131</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -828,7 +828,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,29 +845,29 @@
     <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14">
         <v>336</v>
@@ -879,7 +879,7 @@
         <v>643106</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="23">
         <v>0.61</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="14">
         <v>336</v>
@@ -909,7 +909,7 @@
         <v>643106</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="23">
         <v>0.61</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="14">
         <v>336</v>
@@ -939,7 +939,7 @@
         <v>643106</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="23">
         <v>0.61</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="14">
         <v>336</v>
@@ -969,7 +969,7 @@
         <v>643106</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="23">
         <v>0.61</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="6" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="14">
         <v>336</v>
@@ -999,7 +999,7 @@
         <v>2858</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="25">
         <v>124</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="7" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="14">
         <v>336</v>
@@ -1024,7 +1024,7 @@
         <v>2858</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="24">
         <v>700</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="14">
         <v>336</v>
@@ -1049,7 +1049,7 @@
         <v>2858</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="25">
         <v>1.0760000000000001</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14">
         <v>336</v>
@@ -1074,7 +1074,7 @@
         <v>2858</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="24">
         <v>3.9E-2</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14">
         <v>336</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="14">
         <v>336</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14">
         <v>336</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14">
         <v>336</v>

--- a/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
+++ b/CP05MOAS-GL336/Omaha_Cal_Info_CP05MOAS-GL336_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8055" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1260" yWindow="1140" windowWidth="23300" windowHeight="8460" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,17 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$97</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$408</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Ref Des</t>
   </si>
@@ -127,20 +132,23 @@
     <t>CP05MOAS-GL336</t>
   </si>
   <si>
-    <t>40°02.0500'N</t>
-  </si>
-  <si>
-    <t>70°19.7500'W</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
+  </si>
+  <si>
+    <t>39° 50' N</t>
+  </si>
+  <si>
+    <t>70° 42.5' W</t>
+  </si>
+  <si>
+    <t>FZ-2 Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,8 +205,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,18 +242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDEADA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -286,12 +309,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,16 +353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,15 +392,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -489,7 +552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +587,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,25 +774,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39"/>
-    <col min="3" max="3" width="14.42578125"/>
-    <col min="4" max="4" width="24.140625"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="8" width="18.7109375"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="17.140625"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -774,52 +832,59 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>42016</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="25">
+        <v>42015</v>
+      </c>
+      <c r="E2" s="5">
         <v>6.9444444444444397E-3</v>
       </c>
-      <c r="F2" s="7">
-        <v>42131</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="26">
+        <v>42090</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
+      <c r="H2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="28">
+        <v>1000</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="K2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -827,30 +892,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.5703125"/>
-    <col min="2" max="2" width="25"/>
-    <col min="3" max="3" width="26.140625"/>
-    <col min="4" max="4" width="26.85546875"/>
-    <col min="5" max="6" width="28.85546875"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="6" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -858,319 +918,324 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14">
-        <v>336</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="11">
+        <v>336</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
         <v>643106</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>0.61</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14">
-        <v>336</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="B3" s="11">
+        <v>336</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
         <v>643106</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>0.61</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14">
-        <v>336</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="11">
+        <v>336</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
         <v>643106</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>0.61</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14">
-        <v>336</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="11">
+        <v>336</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <v>643106</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>0.61</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
-        <v>336</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B6" s="11">
+        <v>336</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <v>2858</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>124</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" s="18" customFormat="1">
+      <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14">
-        <v>336</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="11">
+        <v>336</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
         <v>2858</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>700</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" s="18" customFormat="1">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
-        <v>336</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="11">
+        <v>336</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
         <v>2858</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" s="18" customFormat="1">
+      <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14">
-        <v>336</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="11">
+        <v>336</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
         <v>2858</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <v>3.9E-2</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14">
-        <v>336</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="B10" s="11">
+        <v>336</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <v>9030</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14">
-        <v>336</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="11">
+        <v>336</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <v>117</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="14">
-        <v>336</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="B12" s="11">
+        <v>336</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
         <v>50152</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="14">
-        <v>336</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
-        <v>336</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="B13" s="11">
+        <v>336</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>336</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>